--- a/Cronograma/Cronograma-Actividades-V2.xlsx
+++ b/Cronograma/Cronograma-Actividades-V2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gommy\Documents\GitHub\5166_PPP_Documentacion\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{918FDCF2-2F12-4B62-BFDE-7369155C5347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CC8801-238F-4C8B-8EF1-A72C039B9C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
   </bookViews>
@@ -74,6 +74,33 @@
     <t>Capacitación</t>
   </si>
   <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Activity Detail : Jeimmy Tinoco</t>
+  </si>
+  <si>
+    <t>Entrega final del aplicativo móvil.</t>
+  </si>
+  <si>
+    <t>HORAS TRABAJADAS</t>
+  </si>
+  <si>
+    <t>Configuración del dispositivo FortiWiFi 60C, incluyendo la creación y asignación de una nueva interfaz, la implementación de un servidor DHCP para la asignación dinámica de direcciones IP, y la configuración de un SSID para la gestión de la conectividad inalámbrica.</t>
+  </si>
+  <si>
+    <t>Configuración de FortiWiFi 60C para red inalámbrica</t>
+  </si>
+  <si>
+    <t>Revisión y actualización del código obsoleto</t>
+  </si>
+  <si>
+    <t>Desarrollo e implementación del login</t>
+  </si>
+  <si>
+    <t>Implementación de los módulos operaciones y respuesta</t>
+  </si>
+  <si>
     <r>
       <t>24/09:</t>
     </r>
@@ -85,7 +112,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Introducción a las herramientas.</t>
+      <t xml:space="preserve"> Introducción a las herramientas utilizadas en el proyecto, incluyendo una revisión básica de sus funcionalidades y aplicaciones prácticas.</t>
     </r>
   </si>
   <si>
@@ -100,7 +127,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Capacitación en tecnologías.</t>
+      <t xml:space="preserve"> Capacitación en tecnologías relevantes, con énfasis en su integración dentro de los procesos de desarrollo y operación.</t>
     </r>
   </si>
   <si>
@@ -115,7 +142,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Taller práctico sobre el uso de herramientas.</t>
+      <t xml:space="preserve"> Taller práctico sobre el uso eficiente de herramientas tecnológicas, enfocado en la solución de problemas comunes.</t>
     </r>
   </si>
   <si>
@@ -130,7 +157,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Evaluación de conocimientos.</t>
+      <t xml:space="preserve"> Evaluación de conocimientos adquiridos durante la capacitación</t>
     </r>
   </si>
   <si>
@@ -145,7 +172,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Análisis del código.</t>
+      <t xml:space="preserve"> Análisis exhaustivo del código existente para identificar áreas críticas y oportunidades de mejora.</t>
     </r>
   </si>
   <si>
@@ -160,7 +187,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Identificación de secciones obsoletas.</t>
+      <t xml:space="preserve"> Identificación de secciones obsoletas, priorizando aquellas que afectan el desempeño y seguridad del sistema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>02/10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Búsqueda de librerías y componentes modernos para reemplazar elementos desactualizados.</t>
     </r>
   </si>
   <si>
@@ -175,7 +217,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Documentación de cambios realizados.</t>
+      <t xml:space="preserve">  Documentación detallada de los cambios propuestos para mantener un registro claro y comprensible.</t>
     </r>
   </si>
   <si>
@@ -190,7 +232,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Revisión del código restante.</t>
+      <t xml:space="preserve"> Revisión de las porciones de código restantes, asegurando su compatibilidad con futuras actualizaciones.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>07/10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Corrección de errores identificados, priorizando aquellos que impactan funciones críticas del sistema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>08/10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Análisis de las correcciones implementadas, verificando su efectividad y posibles efectos secundarios.</t>
     </r>
   </si>
   <si>
@@ -205,7 +277,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Ajustes basados en resultados de pruebas.</t>
+      <t xml:space="preserve"> Ajustes basados en resultados de pruebas, optimizando el rendimiento general del sistema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10/10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Descarga e integración de librerías y componentes necesarios para mejoras funcionales.</t>
     </r>
   </si>
   <si>
@@ -220,7 +307,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Consolidación de cambios.</t>
+      <t xml:space="preserve"> Consolidación de los cambios realizados, garantizando una transición sin interrupciones en el sistema.</t>
     </r>
   </si>
   <si>
@@ -235,7 +322,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Documentación de revisión final.</t>
+      <t xml:space="preserve"> Documentación final de la revisión, incluyendo una descripción de las soluciones aplicadas y su impacto.</t>
     </r>
   </si>
   <si>
@@ -250,7 +337,123 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Preparación para la siguiente fase.</t>
+      <t xml:space="preserve"> Preparación de los elementos necesarios para avanzar a la siguiente fase de desarrollo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Propuesta inicial de nuevos cambios orientados a incrementar la eficiencia del sistema</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Refinamiento y documentación de propuestas, buscando alinearlas con los objetivos generales del proyecto.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Documentación de las propuestas finales, incluyendo detalles técnicos y justificaciones de los cambios.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Revisión detallada de las propuestas para asegurar su viabilidad técnica y práctica.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aceptación y ejecución de las nuevas propuestas, incluyendo pruebas iniciales de integración.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>25/10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Revisión de bocetos iniciales para definir los componentes principales de la interfaz del usuario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>28/10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Estructuración de los bocetos, organizando elementos visuales y funcionales de forma coherente.</t>
     </r>
   </si>
   <si>
@@ -265,7 +468,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Ajustes a los diseños.</t>
+      <t xml:space="preserve"> Ajustes en los diseños para optimizar la experiencia del usuario y cumplir con los requisitos técnicos.</t>
     </r>
   </si>
   <si>
@@ -280,7 +483,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Implementación de la página de inicio de sesión.</t>
+      <t xml:space="preserve"> Desarrollo de la página de inicio de sesión, asegurando autenticación segura y diseño intuitivo.</t>
     </r>
   </si>
   <si>
@@ -295,7 +498,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Pruebas de funcionalidad del login.</t>
+      <t xml:space="preserve"> Pruebas funcionales del módulo de login, validando acceso correcto y manejo de errores.</t>
     </r>
   </si>
   <si>
@@ -310,7 +513,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Ajustes y mejoras.</t>
+      <t xml:space="preserve"> Ajustes y mejoras basados en retroalimentación de pruebas para optimizar la funcionalidad.</t>
     </r>
   </si>
   <si>
@@ -325,7 +528,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Desarrollo de operaciones básicas.</t>
+      <t xml:space="preserve"> Desarrollo de operaciones básicas, incluyendo creación y actualización de registros.</t>
     </r>
   </si>
   <si>
@@ -340,7 +543,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Integración de operaciones en el sistema.</t>
+      <t xml:space="preserve"> Integración de las operaciones en el sistema, asegurando compatibilidad y estabilidad.</t>
     </r>
   </si>
   <si>
@@ -355,7 +558,82 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Pruebas de operaciones.</t>
+      <t xml:space="preserve"> Pruebas iniciales de las operaciones para identificar y resolver posibles errores.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14/11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Desarrollo de respuestas, agregando funcionalidades clave para la gestión del sistema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15/11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Integración de respuestas en el sistema, probando su interacción con otros módulos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>18/11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cambios y mejoras en la aplicación móvil basados en retroalimentación de pruebas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19/11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ajustes finales en la aplicación móvil, optimizando funcionalidad y rendimiento.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20/11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Realización de pruebas funcionales completas para verificar el correcto funcionamiento de todas las funcionalidades.</t>
     </r>
   </si>
   <si>
@@ -370,7 +648,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Revisión de errores.</t>
+      <t xml:space="preserve"> Revisión y corrección de errores detectados durante las pruebas finales.</t>
     </r>
   </si>
   <si>
@@ -385,292 +663,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Ajustes finales basados en pruebas.</t>
-    </r>
-  </si>
-  <si>
-    <t>Elaboración de la documentación del proyecto.</t>
-  </si>
-  <si>
-    <r>
-      <t>25/10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Revisión de bocetos iniciales.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>28/10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Estructuracion de los bocetos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>02/10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Búsqueda de librerias</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>07/10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Corrección de errores</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>08/10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Análisis de corección de errores</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10/10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Descarga de librerias y componentes</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>17/10 - 23/10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Propuesta de nuevos cambios.</t>
-    </r>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Activity Detail : Jeimmy Tinoco</t>
-  </si>
-  <si>
-    <t>Entrega final del aplicativo móvil.</t>
-  </si>
-  <si>
-    <t>Entrega del aplicativo móvil funcional y libre de errores</t>
-  </si>
-  <si>
-    <r>
-      <t>14/11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Desarrollo de respuestas.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>15/11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Integracion de respuesta en el sistema</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>18/11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Cambios en la app movil.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>19/11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ajustes app movil.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>20/11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Pruebas funcionales de la aplicación</t>
-    </r>
-  </si>
-  <si>
-    <t>HORAS TRABAJADAS</t>
-  </si>
-  <si>
-    <r>
-      <t>18/10 - 23/10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Propuesta de nuevos cambios.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21/10 - 23/10: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Documentacion de propuestas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>22/10 - 23/10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Revision de propuesta</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>23/10 - 23/10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Aceptacion y ejecucion de nuevas propuestas</t>
-    </r>
-  </si>
-  <si>
-    <t>Configuración del dispositivo FortiWiFi 60C, incluyendo la creación y asignación de una nueva interfaz, la implementación de un servidor DHCP para la asignación dinámica de direcciones IP, y la configuración de un SSID para la gestión de la conectividad inalámbrica.</t>
-  </si>
-  <si>
-    <t>Configuración de FortiWiFi 60C para red inalámbrica</t>
-  </si>
-  <si>
-    <t>Revisión y actualización del código obsoleto</t>
-  </si>
-  <si>
-    <t>Desarrollo e implementación del login</t>
-  </si>
-  <si>
-    <t>Implementación de los módulos operaciones y respuesta</t>
+      <t xml:space="preserve"> Implementación de ajustes finales basados en pruebas y retroalimentación.</t>
+    </r>
+  </si>
+  <si>
+    <t>Elaboración de la documentación técnica del proyecto, incluyendo descripciones detalladas y procedimientos utilizados.</t>
+  </si>
+  <si>
+    <t>Entrega oficial del aplicativo móvil, validado funcionalmente y libre de errores, listo para su implementación.</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -735,6 +735,21 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -759,13 +774,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -776,8 +791,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1096,7 +1111,7 @@
   <dimension ref="C2:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,40 +1128,40 @@
   <sheetData>
     <row r="2" spans="3:11" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="8" t="s">
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
@@ -1165,65 +1180,65 @@
       <c r="H5" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>6</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K5" s="9">
         <f>SUM(I5:I8)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>6</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>6</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>6</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10">
         <v>45565</v>
@@ -1240,260 +1255,260 @@
       <c r="H9" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>6</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K9" s="9">
         <f>SUM(I9:I25)</f>
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>6</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>6</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>6</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>6</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>6</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>6</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>6</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>6</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>6</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>6</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>6</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>6</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>6</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>6</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>6</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="3:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>6</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="3:11" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="7" t="s">
-        <v>56</v>
+      <c r="C26" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D26" s="3">
         <v>45589</v>
@@ -1510,18 +1525,18 @@
       <c r="H26" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I26" s="7">
-        <v>6</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="7">
+      <c r="I26" s="6">
+        <v>6</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="6">
         <f>SUM(I26)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="9" t="s">
         <v>8</v>
       </c>
@@ -1540,50 +1555,50 @@
       <c r="H27" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>6</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K27" s="9">
         <f>SUM(I27:I29)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>6</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>6</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="3:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="9" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D30" s="10">
         <v>45602</v>
@@ -1600,50 +1615,50 @@
       <c r="H30" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>6</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K30" s="9">
         <f>SUM(I30:I32)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>6</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>6</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="9" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D33" s="10">
         <v>45607</v>
@@ -1660,108 +1675,108 @@
       <c r="H33" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>6</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="K33" s="9">
         <f>SUM(I33:I39)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>6</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>6</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>6</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>6</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>6</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>6</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="9" t="s">
         <v>9</v>
       </c>
@@ -1780,49 +1795,49 @@
       <c r="H40" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>6</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K40" s="9">
         <f>SUM(I40:I42)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>6</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="9"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <v>6</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="7" t="s">
+    <row r="43" spans="3:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="3">
@@ -1840,20 +1855,20 @@
       <c r="H43" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I43" s="7">
-        <v>6</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K43" s="7">
+      <c r="I43" s="6">
+        <v>6</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="6">
         <f>SUM(I43)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="7" t="s">
-        <v>43</v>
+    <row r="44" spans="3:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D44" s="3">
         <v>45622</v>
@@ -1870,20 +1885,20 @@
       <c r="H44" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I44" s="7">
-        <v>6</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K44" s="7">
+      <c r="I44" s="6">
+        <v>6</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44" s="6">
         <f>SUM(I44)</f>
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I45">
         <f>SUM(I5:I44)</f>
@@ -1896,6 +1911,34 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="C9:C25"/>
+    <mergeCell ref="D9:D25"/>
+    <mergeCell ref="E9:E25"/>
+    <mergeCell ref="F9:F25"/>
+    <mergeCell ref="G9:G25"/>
+    <mergeCell ref="H9:H25"/>
+    <mergeCell ref="K9:K25"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
     <mergeCell ref="K33:K39"/>
     <mergeCell ref="C40:C42"/>
     <mergeCell ref="D40:D42"/>
@@ -1910,34 +1953,6 @@
     <mergeCell ref="F33:F39"/>
     <mergeCell ref="G33:G39"/>
     <mergeCell ref="H33:H39"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="C9:C25"/>
-    <mergeCell ref="D9:D25"/>
-    <mergeCell ref="E9:E25"/>
-    <mergeCell ref="F9:F25"/>
-    <mergeCell ref="G9:G25"/>
-    <mergeCell ref="H9:H25"/>
-    <mergeCell ref="K9:K25"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
